--- a/bin/constants/VehicleTemplate.xlsx
+++ b/bin/constants/VehicleTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VehicleParts\server\bin\constants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF5A09C-93C7-4FCC-913B-62973A5CE053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103D52C0-9514-46EB-8C0D-CA75EC5F4A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts" sheetId="1" r:id="rId1"/>
@@ -428,21 +428,25 @@
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" activeCellId="1" sqref="D1:D1048576 E1:E1048576"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="17.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
     <col min="4" max="5" width="8.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="1" customWidth="1"/>
-    <col min="7" max="9" width="15.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="1" customWidth="1"/>
     <col min="11" max="11" width="18.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="1" customWidth="1"/>
     <col min="13" max="13" width="8.5703125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="22.140625" style="1" customWidth="1"/>
     <col min="16" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>

--- a/bin/constants/VehicleTemplate.xlsx
+++ b/bin/constants/VehicleTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VehicleParts\server\bin\constants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103D52C0-9514-46EB-8C0D-CA75EC5F4A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67BCD39-562F-42A9-8476-72B7129CE6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -428,7 +428,7 @@
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/bin/constants/VehicleTemplate.xlsx
+++ b/bin/constants/VehicleTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VehicleParts\server\bin\constants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67BCD39-562F-42A9-8476-72B7129CE6EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1B6A13-76F2-4976-9375-11E53F49644E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Car Maker</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Vehicle Code</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -425,75 +428,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="22.140625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="3.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="8.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="22.140625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/bin/constants/VehicleTemplate.xlsx
+++ b/bin/constants/VehicleTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VehicleParts\server\bin\constants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1B6A13-76F2-4976-9375-11E53F49644E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1ACBAE-0883-41B4-BF4D-914332E2217E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts" sheetId="1" r:id="rId1"/>
@@ -431,12 +431,12 @@
   <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" style="1" customWidth="1"/>

--- a/bin/constants/VehicleTemplate.xlsx
+++ b/bin/constants/VehicleTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VehicleParts\server\bin\constants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1ACBAE-0883-41B4-BF4D-914332E2217E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60389B01-0197-40DA-9BEB-DD9579ADCF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts" sheetId="1" r:id="rId1"/>
@@ -438,7 +438,7 @@
   <cols>
     <col min="1" max="1" width="7.140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" style="1" customWidth="1"/>
     <col min="5" max="6" width="8.5703125" style="3" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" customWidth="1"/>
